--- a/hois_back/src/main/resources/templates/timetableplanhigher.xlsx
+++ b/hois_back/src/main/resources/templates/timetableplanhigher.xlsx
@@ -76,9 +76,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>${lesson.studentGroups}</t>
-  </si>
-  <si>
     <t>${hois:name(lesson.name)}</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>${hois:dayOfWeek(day)} ${hois:dateAsString(day)}</t>
+  </si>
+  <si>
+    <t>${lesson.subgroups != null ? lesson.subgroups : lesson.studentGroups}</t>
   </si>
 </sst>
 </file>
@@ -176,11 +176,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,7 +550,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,43 +567,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="4"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
